--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/a-F11r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/a-F11r.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>F11r</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>F11r</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,25 +528,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02391833333333333</v>
+        <v>0.344207</v>
       </c>
       <c r="H2">
-        <v>0.071755</v>
+        <v>1.032621</v>
       </c>
       <c r="I2">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833164</v>
       </c>
       <c r="J2">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833165</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.10250466666666</v>
+        <v>32.736679</v>
       </c>
       <c r="N2">
-        <v>84.307514</v>
+        <v>98.210037</v>
       </c>
       <c r="O2">
-        <v>0.788839652922774</v>
+        <v>0.8346853755332739</v>
       </c>
       <c r="P2">
-        <v>0.788839652922774</v>
+        <v>0.834685375533274</v>
       </c>
       <c r="Q2">
-        <v>0.6721650741188888</v>
+        <v>11.268194068553</v>
       </c>
       <c r="R2">
-        <v>6.04948566707</v>
+        <v>101.413746616977</v>
       </c>
       <c r="S2">
-        <v>0.05125354887780399</v>
+        <v>0.5830512921214199</v>
       </c>
       <c r="T2">
-        <v>0.05125354887780399</v>
+        <v>0.5830512921214202</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02391833333333333</v>
+        <v>0.344207</v>
       </c>
       <c r="H3">
-        <v>0.071755</v>
+        <v>1.032621</v>
       </c>
       <c r="I3">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833164</v>
       </c>
       <c r="J3">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833165</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.207793</v>
       </c>
       <c r="O3">
-        <v>0.001944255621151182</v>
+        <v>0.001766029048926899</v>
       </c>
       <c r="P3">
-        <v>0.001944255621151182</v>
+        <v>0.0017660290489269</v>
       </c>
       <c r="Q3">
-        <v>0.001656687412777778</v>
+        <v>0.02384126838366666</v>
       </c>
       <c r="R3">
-        <v>0.014910186715</v>
+        <v>0.214571415453</v>
       </c>
       <c r="S3">
-        <v>0.0001263247862102247</v>
+        <v>0.001233621133283823</v>
       </c>
       <c r="T3">
-        <v>0.0001263247862102247</v>
+        <v>0.001233621133283824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02391833333333333</v>
+        <v>0.344207</v>
       </c>
       <c r="H4">
-        <v>0.071755</v>
+        <v>1.032621</v>
       </c>
       <c r="I4">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833164</v>
       </c>
       <c r="J4">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833165</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8073796666666667</v>
+        <v>0.5119106666666666</v>
       </c>
       <c r="N4">
-        <v>2.422139</v>
+        <v>1.535732</v>
       </c>
       <c r="O4">
-        <v>0.02266321467017418</v>
+        <v>0.01305215923234471</v>
       </c>
       <c r="P4">
-        <v>0.02266321467017418</v>
+        <v>0.01305215923234471</v>
       </c>
       <c r="Q4">
-        <v>0.01931117599388889</v>
+        <v>0.1762032348413333</v>
       </c>
       <c r="R4">
-        <v>0.173800583945</v>
+        <v>1.585829113572</v>
       </c>
       <c r="S4">
-        <v>0.001472504806930202</v>
+        <v>0.009117301594665039</v>
       </c>
       <c r="T4">
-        <v>0.001472504806930202</v>
+        <v>0.009117301594665041</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02391833333333333</v>
+        <v>0.344207</v>
       </c>
       <c r="H5">
-        <v>0.071755</v>
+        <v>1.032621</v>
       </c>
       <c r="I5">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833164</v>
       </c>
       <c r="J5">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833165</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.645968000000001</v>
+        <v>5.902527666666667</v>
       </c>
       <c r="N5">
-        <v>19.937904</v>
+        <v>17.707583</v>
       </c>
       <c r="O5">
-        <v>0.1865528767859006</v>
+        <v>0.1504964361854544</v>
       </c>
       <c r="P5">
-        <v>0.1865528767859006</v>
+        <v>0.1504964361854544</v>
       </c>
       <c r="Q5">
-        <v>0.1589604779466667</v>
+        <v>2.031691340560333</v>
       </c>
       <c r="R5">
-        <v>1.43064430152</v>
+        <v>18.285222065043</v>
       </c>
       <c r="S5">
-        <v>0.0121209639414224</v>
+        <v>0.1051260081339476</v>
       </c>
       <c r="T5">
-        <v>0.0121209639414224</v>
+        <v>0.1051260081339476</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +776,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3442069999999999</v>
+        <v>0.1485533333333333</v>
       </c>
       <c r="H6">
-        <v>1.032621</v>
+        <v>0.44566</v>
       </c>
       <c r="I6">
-        <v>0.9350266575876333</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="J6">
-        <v>0.9350266575876331</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.10250466666666</v>
+        <v>32.736679</v>
       </c>
       <c r="N6">
-        <v>84.307514</v>
+        <v>98.210037</v>
       </c>
       <c r="O6">
-        <v>0.788839652922774</v>
+        <v>0.8346853755332739</v>
       </c>
       <c r="P6">
-        <v>0.788839652922774</v>
+        <v>0.834685375533274</v>
       </c>
       <c r="Q6">
-        <v>9.673078823799331</v>
+        <v>4.863142787713334</v>
       </c>
       <c r="R6">
-        <v>87.05770941419398</v>
+        <v>43.76828508942</v>
       </c>
       <c r="S6">
-        <v>0.73758610404497</v>
+        <v>0.2516340834118539</v>
       </c>
       <c r="T6">
-        <v>0.73758610404497</v>
+        <v>0.251634083411854</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3442069999999999</v>
+        <v>0.1485533333333333</v>
       </c>
       <c r="H7">
-        <v>1.032621</v>
+        <v>0.44566</v>
       </c>
       <c r="I7">
-        <v>0.9350266575876333</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="J7">
-        <v>0.9350266575876331</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.207793</v>
       </c>
       <c r="O7">
-        <v>0.001944255621151182</v>
+        <v>0.001766029048926899</v>
       </c>
       <c r="P7">
-        <v>0.001944255621151182</v>
+        <v>0.0017660290489269</v>
       </c>
       <c r="Q7">
-        <v>0.02384126838366666</v>
+        <v>0.01028944759777778</v>
       </c>
       <c r="R7">
-        <v>0.2145714154529999</v>
+        <v>0.09260502838</v>
       </c>
       <c r="S7">
-        <v>0.001817930834940958</v>
+        <v>0.0005324079156430759</v>
       </c>
       <c r="T7">
-        <v>0.001817930834940957</v>
+        <v>0.000532407915643076</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,25 +900,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.3442069999999999</v>
+        <v>0.1485533333333333</v>
       </c>
       <c r="H8">
-        <v>1.032621</v>
+        <v>0.44566</v>
       </c>
       <c r="I8">
-        <v>0.9350266575876333</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="J8">
-        <v>0.9350266575876331</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8073796666666667</v>
+        <v>0.5119106666666666</v>
       </c>
       <c r="N8">
-        <v>2.422139</v>
+        <v>1.535732</v>
       </c>
       <c r="O8">
-        <v>0.02266321467017418</v>
+        <v>0.01305215923234471</v>
       </c>
       <c r="P8">
-        <v>0.02266321467017418</v>
+        <v>0.01305215923234471</v>
       </c>
       <c r="Q8">
-        <v>0.2779057329243333</v>
+        <v>0.07604603590222223</v>
       </c>
       <c r="R8">
-        <v>2.501151596319</v>
+        <v>0.6844143231199999</v>
       </c>
       <c r="S8">
-        <v>0.02119070986324399</v>
+        <v>0.003934857637679673</v>
       </c>
       <c r="T8">
-        <v>0.02119070986324398</v>
+        <v>0.003934857637679674</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.3442069999999999</v>
+        <v>0.1485533333333333</v>
       </c>
       <c r="H9">
-        <v>1.032621</v>
+        <v>0.44566</v>
       </c>
       <c r="I9">
-        <v>0.9350266575876333</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="J9">
-        <v>0.9350266575876331</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.645968000000001</v>
+        <v>5.902527666666667</v>
       </c>
       <c r="N9">
-        <v>19.937904</v>
+        <v>17.707583</v>
       </c>
       <c r="O9">
-        <v>0.1865528767859006</v>
+        <v>0.1504964361854544</v>
       </c>
       <c r="P9">
-        <v>0.1865528767859006</v>
+        <v>0.1504964361854544</v>
       </c>
       <c r="Q9">
-        <v>2.287588707376</v>
+        <v>0.8768401599755556</v>
       </c>
       <c r="R9">
-        <v>20.588298366384</v>
+        <v>7.89156143978</v>
       </c>
       <c r="S9">
-        <v>0.1744319128444782</v>
+        <v>0.04537042805150687</v>
       </c>
       <c r="T9">
-        <v>0.1744319128444782</v>
+        <v>0.04537042805150687</v>
       </c>
     </row>
   </sheetData>
